--- a/data/trans_bre/P21_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3967906366874219</v>
+        <v>0.8189497012438105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.310775485389986</v>
+        <v>-4.173487556732558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.044366557807141</v>
+        <v>0.4536596709028589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.147502977121978</v>
+        <v>-1.517192134473295</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02162214754481948</v>
+        <v>0.04532476460188171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0884584586084409</v>
+        <v>-0.1090851137857251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0006766079910663523</v>
+        <v>0.01044578553043055</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05607425118240271</v>
+        <v>-0.03993504049316939</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.85446181839081</v>
+        <v>13.5309779321009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.27706757123798</v>
+        <v>12.25493745306395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.94819210276123</v>
+        <v>14.82020697068139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.79512682678783</v>
+        <v>12.11060338209903</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.17086394624982</v>
+        <v>1.144160500679667</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4037192417606168</v>
+        <v>0.408110685617737</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6233674081584243</v>
+        <v>0.596499537477141</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3989303898500802</v>
+        <v>0.4201421475799095</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.381387148375748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.587158398107463</v>
+        <v>4.587158398107466</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6596477572566258</v>
@@ -749,7 +749,7 @@
         <v>0.2631828866120202</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3007659998658816</v>
+        <v>0.3007659998658818</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.061838396804422</v>
+        <v>4.619251414372901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.986495902639234</v>
+        <v>6.060319710448956</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5402900274276536</v>
+        <v>-0.4420595502513345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3294734001984109</v>
+        <v>-0.6897456923604303</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2248462903993386</v>
+        <v>0.2511099988227958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2100093967323853</v>
+        <v>0.198209456814375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03110732311491712</v>
+        <v>-0.02460823215132582</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02811384442343929</v>
+        <v>-0.0372655033531861</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.00578312776334</v>
+        <v>14.92902321732895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.92198985793039</v>
+        <v>18.41405584693141</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.490878655632921</v>
+        <v>9.618184489298567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.427348901927854</v>
+        <v>9.398870628427511</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.179135606894174</v>
+        <v>1.115025379740078</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7929478577928899</v>
+        <v>0.7931435097385682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6786731184049337</v>
+        <v>0.6992164037300869</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7594218592931258</v>
+        <v>0.7451897010546586</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.636713468030497</v>
+        <v>-2.901352731294045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.885509085849337</v>
+        <v>-1.894318975323957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.407660964831578</v>
+        <v>-3.227721111130566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.085952319947301</v>
+        <v>2.072805098549078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1041546920291447</v>
+        <v>-0.1209523191246242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1062181743704822</v>
+        <v>-0.07012491722297194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1746373795571487</v>
+        <v>-0.217293314091356</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.08610970654438919</v>
+        <v>0.07609862457345846</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.77912571276319</v>
+        <v>10.72705857059294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.72975839902719</v>
+        <v>11.43824227299552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.783057357531487</v>
+        <v>7.461895147463247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.02750597273891</v>
+        <v>14.9012005701284</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5975098817725797</v>
+        <v>0.5830411138943927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5236601529465149</v>
+        <v>0.5668714096069076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8294789351034113</v>
+        <v>0.8117788314140347</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7597380982540727</v>
+        <v>0.7465728076649932</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.855717102402092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.01931174584107</v>
+        <v>1.019311745841062</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3429001464874578</v>
@@ -949,7 +949,7 @@
         <v>0.2207437314202806</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.04198910827632626</v>
+        <v>0.0419891082763259</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9280155611488055</v>
+        <v>0.380078839372338</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.9776475720189957</v>
+        <v>-1.444333874339718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.350093290029302</v>
+        <v>-1.714152346316832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.204156059676285</v>
+        <v>-6.666031747398085</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03245255989790529</v>
+        <v>0.01749924098213942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04420011678544244</v>
+        <v>-0.05975707355053525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05395131282650902</v>
+        <v>-0.05501469540762718</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.243912954475589</v>
+        <v>-0.2229418222047433</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.26209211388852</v>
+        <v>13.42762056497462</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.4495760417781</v>
+        <v>11.20065284076943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.53017896595294</v>
+        <v>12.86125901439745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.660654555716665</v>
+        <v>8.112361038848267</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7723263884586239</v>
+        <v>0.7847544928822295</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.612337475785422</v>
+        <v>0.6052095984200839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5309436536669008</v>
+        <v>0.5904927500000972</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3887303174166242</v>
+        <v>0.4105005762032915</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.412059558594545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.297629456628376</v>
+        <v>-4.297629456628374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1836531435015924</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.398229854469853</v>
+        <v>-4.212030367044642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.690582989382325</v>
+        <v>10.10000796415618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.693136222773813</v>
+        <v>-5.468943861956089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.409227006779142</v>
+        <v>-8.846357360223578</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2171312285030872</v>
+        <v>-0.1930524717222878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4720026110629108</v>
+        <v>0.4592649006268805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3566092150924681</v>
+        <v>-0.3454326990815098</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7151511412246321</v>
+        <v>-0.699985788671901</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.94217434715269</v>
+        <v>11.35756310565825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.42042856728861</v>
+        <v>26.72514838868388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.312929482630571</v>
+        <v>7.779757487032376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.7748684811461189</v>
+        <v>-0.4925579025085688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8081933141279312</v>
+        <v>0.8854761164676724</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.012156766136465</v>
+        <v>1.983738559493242</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7674658777475444</v>
+        <v>0.7937661764795458</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.06473210134943129</v>
+        <v>-0.04939223323953285</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.019086116316885</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.057539567461288</v>
+        <v>4.057539567461271</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4585032506991327</v>
@@ -1149,7 +1149,7 @@
         <v>0.2742791603926027</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1608714339534265</v>
+        <v>0.1608714339534258</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.233841870422856</v>
+        <v>2.408874170087567</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.305673594545112</v>
+        <v>3.356177279211003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.594817832472033</v>
+        <v>-1.857380561869796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.987799132412356</v>
+        <v>-2.260934857827201</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08505810208796465</v>
+        <v>0.08544074225445829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1266856423728958</v>
+        <v>0.1149685109099945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07323898706268077</v>
+        <v>-0.07506461111060626</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1024180130423893</v>
+        <v>-0.07531294482057485</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.01362892393404</v>
+        <v>16.99504038258607</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.69816541303164</v>
+        <v>18.13858581454621</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.07712573158578</v>
+        <v>13.73568753091207</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.847684245252724</v>
+        <v>10.12678130176674</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9402938986943308</v>
+        <v>0.9060513069478195</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9364159406600679</v>
+        <v>0.9009461954650937</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7062985710293227</v>
+        <v>0.7656215452901715</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4531214073900391</v>
+        <v>0.4821687099283845</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.640550647338967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.991446187294987</v>
+        <v>7.991446187294981</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4730019676509421</v>
@@ -1249,7 +1249,7 @@
         <v>0.5788717216438701</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2995010589060962</v>
+        <v>0.299501058906096</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.921926032310055</v>
+        <v>3.693287685641012</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.00545641668999515</v>
+        <v>-0.05975645389243618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.421015759495941</v>
+        <v>2.618742862027536</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.934633966995294</v>
+        <v>2.897016778593276</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2012572358499103</v>
+        <v>0.1720970330279284</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.00135895407177738</v>
+        <v>-0.000231451168550647</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.166300275266358</v>
+        <v>0.1795221940306878</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09899014734929555</v>
+        <v>0.0990323061260118</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.40697663689213</v>
+        <v>13.22073854225263</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.537149918931236</v>
+        <v>9.439032827884478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.60542095541486</v>
+        <v>10.84713643176278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.19433598698088</v>
+        <v>12.92562826532206</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8446219780699344</v>
+        <v>0.8437554971968553</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4822885598643117</v>
+        <v>0.4851823572406463</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.083306336931362</v>
+        <v>1.117874302651602</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5598374591086317</v>
+        <v>0.5351189865998333</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>4.0287253121497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.73339495797992</v>
+        <v>2.733394957979926</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4605462425328503</v>
@@ -1349,7 +1349,7 @@
         <v>0.303980764780884</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2135066451927554</v>
+        <v>0.2135066451927559</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.193383878015833</v>
+        <v>2.366361609464352</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.028849421797927</v>
+        <v>0.6194271220742265</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6562845574109369</v>
+        <v>0.2680254815103351</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7921208313963299</v>
+        <v>-0.4521375453059448</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1432562212131013</v>
+        <v>0.1528748035160507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09367189222810783</v>
+        <v>0.04712425916489134</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03278485403493498</v>
+        <v>0.01789159673443877</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05547284993735539</v>
+        <v>-0.0343509385310429</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.11468721304553</v>
+        <v>9.813001627477206</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.395509653381898</v>
+        <v>7.278394352424018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.823624620126934</v>
+        <v>7.749025237864224</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.381996260081728</v>
+        <v>6.169024964198125</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8803646968402229</v>
+        <v>0.8765044003749033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.027518851805341</v>
+        <v>0.9722760195890954</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6981438261079727</v>
+        <v>0.6678194354420502</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5819938414540216</v>
+        <v>0.5579797691839548</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.2898735375701104</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2073988374656988</v>
+        <v>0.2073988374656987</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.372991071365798</v>
+        <v>5.481597295093241</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.926132980992717</v>
+        <v>4.83779798931056</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.996274464347328</v>
+        <v>3.012852262421083</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.365160293228151</v>
+        <v>2.340328247679401</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2948741151093336</v>
+        <v>0.30344729908968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2287241554289204</v>
+        <v>0.2232146100363284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1702526050563183</v>
+        <v>0.1708204901842856</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1065242444356499</v>
+        <v>0.1055637993146318</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.148041403699288</v>
+        <v>9.23258432347127</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.091182350832998</v>
+        <v>8.915322906518227</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.653943333833815</v>
+        <v>6.638861201869105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.353448208140717</v>
+        <v>6.282910837988847</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5688242912059881</v>
+        <v>0.5751052650040417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4706628827548401</v>
+        <v>0.4617555816085313</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4286262466921743</v>
+        <v>0.4199953813960297</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3202984170033497</v>
+        <v>0.3163159820001836</v>
       </c>
     </row>
     <row r="31">
